--- a/AAII_Financials/Quarterly/CINT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CINT_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -716,16 +716,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>102700</v>
+        <v>98200</v>
       </c>
       <c r="E8" s="3">
-        <v>96300</v>
+        <v>92000</v>
       </c>
       <c r="F8" s="3">
-        <v>89400</v>
+        <v>85500</v>
       </c>
       <c r="G8" s="3">
-        <v>73600</v>
+        <v>70300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>66800</v>
+        <v>63900</v>
       </c>
       <c r="E9" s="3">
-        <v>64400</v>
+        <v>61600</v>
       </c>
       <c r="F9" s="3">
-        <v>57700</v>
+        <v>55100</v>
       </c>
       <c r="G9" s="3">
-        <v>48300</v>
+        <v>46200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -774,16 +774,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>35900</v>
+        <v>34300</v>
       </c>
       <c r="E10" s="3">
-        <v>31900</v>
+        <v>30500</v>
       </c>
       <c r="F10" s="3">
-        <v>31700</v>
+        <v>30300</v>
       </c>
       <c r="G10" s="3">
-        <v>25300</v>
+        <v>24200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -942,16 +942,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>90700</v>
+        <v>86700</v>
       </c>
       <c r="E17" s="3">
-        <v>84300</v>
+        <v>80600</v>
       </c>
       <c r="F17" s="3">
-        <v>74000</v>
+        <v>70700</v>
       </c>
       <c r="G17" s="3">
-        <v>65900</v>
+        <v>63000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="E18" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="F18" s="3">
-        <v>15400</v>
+        <v>14800</v>
       </c>
       <c r="G18" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1013,16 +1013,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="3">
-        <v>13600</v>
+        <v>13000</v>
       </c>
       <c r="F20" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="G20" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1042,13 +1042,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>27200</v>
+        <v>26000</v>
       </c>
       <c r="E21" s="3">
-        <v>29400</v>
+        <v>28100</v>
       </c>
       <c r="F21" s="3">
-        <v>30100</v>
+        <v>28700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1071,16 +1071,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13900</v>
+        <v>13300</v>
       </c>
       <c r="E22" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="F22" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="G22" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1100,16 +1100,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="E23" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="F23" s="3">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="G23" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1129,16 +1129,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="3">
         <v>3500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1187,13 +1187,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E26" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F26" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
@@ -1216,13 +1216,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E27" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F27" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
@@ -1361,16 +1361,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10400</v>
+        <v>-10000</v>
       </c>
       <c r="E32" s="3">
-        <v>-13600</v>
+        <v>-13000</v>
       </c>
       <c r="F32" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="G32" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1390,13 +1390,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E33" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F33" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
@@ -1448,13 +1448,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E35" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F35" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
@@ -1537,16 +1537,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="E41" s="3">
-        <v>25800</v>
+        <v>24700</v>
       </c>
       <c r="F41" s="3">
-        <v>26600</v>
+        <v>25400</v>
       </c>
       <c r="G41" s="3">
-        <v>22200</v>
+        <v>21200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1566,13 +1566,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>49600</v>
+        <v>47400</v>
       </c>
       <c r="E42" s="3">
-        <v>79400</v>
+        <v>75900</v>
       </c>
       <c r="F42" s="3">
-        <v>156300</v>
+        <v>149400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1595,16 +1595,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>130500</v>
+        <v>124700</v>
       </c>
       <c r="E43" s="3">
-        <v>105700</v>
+        <v>101100</v>
       </c>
       <c r="F43" s="3">
-        <v>95000</v>
+        <v>90800</v>
       </c>
       <c r="G43" s="3">
-        <v>93300</v>
+        <v>89200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="E45" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="F45" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="G45" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1682,16 +1682,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>211000</v>
+        <v>201700</v>
       </c>
       <c r="E46" s="3">
-        <v>219000</v>
+        <v>209400</v>
       </c>
       <c r="F46" s="3">
-        <v>283900</v>
+        <v>271400</v>
       </c>
       <c r="G46" s="3">
-        <v>121400</v>
+        <v>116100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,16 +1740,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26400</v>
+        <v>25200</v>
       </c>
       <c r="E48" s="3">
-        <v>26100</v>
+        <v>25000</v>
       </c>
       <c r="F48" s="3">
-        <v>25700</v>
+        <v>24600</v>
       </c>
       <c r="G48" s="3">
-        <v>25600</v>
+        <v>24500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1769,16 +1769,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>211000</v>
+        <v>201700</v>
       </c>
       <c r="E49" s="3">
-        <v>205500</v>
+        <v>196400</v>
       </c>
       <c r="F49" s="3">
-        <v>144600</v>
+        <v>138200</v>
       </c>
       <c r="G49" s="3">
-        <v>145900</v>
+        <v>139500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1856,16 +1856,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="E52" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="F52" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="G52" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1914,16 +1914,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>462800</v>
+        <v>442500</v>
       </c>
       <c r="E54" s="3">
-        <v>462200</v>
+        <v>441900</v>
       </c>
       <c r="F54" s="3">
-        <v>462300</v>
+        <v>442000</v>
       </c>
       <c r="G54" s="3">
-        <v>299700</v>
+        <v>286500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27000</v>
+        <v>25900</v>
       </c>
       <c r="E57" s="3">
-        <v>26100</v>
+        <v>24900</v>
       </c>
       <c r="F57" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="G57" s="3">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1998,16 +1998,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35900</v>
+        <v>34300</v>
       </c>
       <c r="E58" s="3">
-        <v>33000</v>
+        <v>31500</v>
       </c>
       <c r="F58" s="3">
-        <v>32200</v>
+        <v>30800</v>
       </c>
       <c r="G58" s="3">
-        <v>27100</v>
+        <v>25900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2027,16 +2027,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>68700</v>
+        <v>65700</v>
       </c>
       <c r="E59" s="3">
-        <v>69000</v>
+        <v>65900</v>
       </c>
       <c r="F59" s="3">
-        <v>59100</v>
+        <v>56500</v>
       </c>
       <c r="G59" s="3">
-        <v>54800</v>
+        <v>52300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2056,16 +2056,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>131700</v>
+        <v>125900</v>
       </c>
       <c r="E60" s="3">
-        <v>128000</v>
+        <v>122400</v>
       </c>
       <c r="F60" s="3">
-        <v>107400</v>
+        <v>102700</v>
       </c>
       <c r="G60" s="3">
-        <v>105900</v>
+        <v>101300</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2085,16 +2085,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>95800</v>
+        <v>91600</v>
       </c>
       <c r="E61" s="3">
-        <v>113400</v>
+        <v>108400</v>
       </c>
       <c r="F61" s="3">
-        <v>122200</v>
+        <v>116800</v>
       </c>
       <c r="G61" s="3">
-        <v>125900</v>
+        <v>120400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27300</v>
+        <v>26100</v>
       </c>
       <c r="E62" s="3">
-        <v>23400</v>
+        <v>22400</v>
       </c>
       <c r="F62" s="3">
-        <v>19500</v>
+        <v>18700</v>
       </c>
       <c r="G62" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2230,16 +2230,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>254800</v>
+        <v>243600</v>
       </c>
       <c r="E66" s="3">
-        <v>264800</v>
+        <v>253200</v>
       </c>
       <c r="F66" s="3">
-        <v>249100</v>
+        <v>238200</v>
       </c>
       <c r="G66" s="3">
-        <v>251200</v>
+        <v>240200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2388,16 +2388,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40100</v>
+        <v>38300</v>
       </c>
       <c r="E72" s="3">
-        <v>33400</v>
+        <v>31900</v>
       </c>
       <c r="F72" s="3">
-        <v>26600</v>
+        <v>25500</v>
       </c>
       <c r="G72" s="3">
-        <v>30400</v>
+        <v>29000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2504,16 +2504,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>208000</v>
+        <v>198800</v>
       </c>
       <c r="E76" s="3">
-        <v>197400</v>
+        <v>188700</v>
       </c>
       <c r="F76" s="3">
-        <v>213200</v>
+        <v>203800</v>
       </c>
       <c r="G76" s="3">
-        <v>48500</v>
+        <v>46400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2596,13 +2596,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E81" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="F81" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
@@ -2638,13 +2638,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="E83" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="F83" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2812,13 +2812,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-15100</v>
+        <v>-14400</v>
       </c>
       <c r="E89" s="3">
-        <v>-14200</v>
+        <v>-13600</v>
       </c>
       <c r="F89" s="3">
-        <v>25900</v>
+        <v>24800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>25900</v>
+        <v>24800</v>
       </c>
       <c r="E94" s="3">
-        <v>18200</v>
+        <v>17400</v>
       </c>
       <c r="F94" s="3">
-        <v>-294900</v>
+        <v>-281900</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-24700</v>
+        <v>-23600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3099,13 +3099,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14700</v>
+        <v>-14100</v>
       </c>
       <c r="E100" s="3">
-        <v>-7800</v>
+        <v>-7500</v>
       </c>
       <c r="F100" s="3">
-        <v>269300</v>
+        <v>257500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3128,10 +3128,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E101" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3157,10 +3157,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="E102" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="F102" s="3">
         <v>300</v>

--- a/AAII_Financials/Quarterly/CINT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CINT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>CINT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,25 +711,28 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>98200</v>
+        <v>108200</v>
       </c>
       <c r="E8" s="3">
-        <v>92000</v>
+        <v>101700</v>
       </c>
       <c r="F8" s="3">
-        <v>85500</v>
+        <v>95200</v>
       </c>
       <c r="G8" s="3">
-        <v>70300</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>88500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>72800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -739,25 +743,28 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>63900</v>
+        <v>70400</v>
       </c>
       <c r="E9" s="3">
-        <v>61600</v>
+        <v>66100</v>
       </c>
       <c r="F9" s="3">
-        <v>55100</v>
+        <v>63700</v>
       </c>
       <c r="G9" s="3">
-        <v>46200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>57100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>47800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,25 +775,28 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>34300</v>
+        <v>37800</v>
       </c>
       <c r="E10" s="3">
-        <v>30500</v>
+        <v>35500</v>
       </c>
       <c r="F10" s="3">
-        <v>30300</v>
+        <v>31500</v>
       </c>
       <c r="G10" s="3">
-        <v>24200</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>31400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>25000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -877,17 +897,17 @@
         <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,25 +962,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86700</v>
+        <v>95700</v>
       </c>
       <c r="E17" s="3">
-        <v>80600</v>
+        <v>89700</v>
       </c>
       <c r="F17" s="3">
-        <v>70700</v>
+        <v>83400</v>
       </c>
       <c r="G17" s="3">
-        <v>63000</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>73200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>65200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -965,25 +992,28 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="E18" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="F18" s="3">
-        <v>14800</v>
+        <v>11900</v>
       </c>
       <c r="G18" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>15300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,25 +1040,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="E20" s="3">
-        <v>13000</v>
+        <v>10300</v>
       </c>
       <c r="F20" s="3">
-        <v>4900</v>
+        <v>13500</v>
       </c>
       <c r="G20" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>5100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3400</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1036,22 +1070,25 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>26000</v>
+        <v>23400</v>
       </c>
       <c r="E21" s="3">
-        <v>28100</v>
+        <v>26900</v>
       </c>
       <c r="F21" s="3">
-        <v>28700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>29100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>29700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1065,25 +1102,28 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13300</v>
+        <v>7800</v>
       </c>
       <c r="E22" s="3">
-        <v>16100</v>
+        <v>13700</v>
       </c>
       <c r="F22" s="3">
-        <v>6500</v>
+        <v>16700</v>
       </c>
       <c r="G22" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>6700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7700</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1094,25 +1134,28 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8200</v>
+        <v>11100</v>
       </c>
       <c r="E23" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="F23" s="3">
-        <v>13200</v>
+        <v>8600</v>
       </c>
       <c r="G23" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>13700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1123,25 +1166,28 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E24" s="3">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="F24" s="3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>5200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3700</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,26 +1230,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4900</v>
+        <v>7900</v>
       </c>
       <c r="E26" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="F26" s="3">
-        <v>8200</v>
+        <v>5700</v>
       </c>
       <c r="G26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,26 +1262,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4900</v>
+        <v>7900</v>
       </c>
       <c r="E27" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="F27" s="3">
-        <v>8200</v>
+        <v>5700</v>
       </c>
       <c r="G27" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,25 +1422,28 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10000</v>
+        <v>-6300</v>
       </c>
       <c r="E32" s="3">
-        <v>-13000</v>
+        <v>-10300</v>
       </c>
       <c r="F32" s="3">
-        <v>-4900</v>
+        <v>-13500</v>
       </c>
       <c r="G32" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>-5100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3400</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1384,26 +1454,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4900</v>
+        <v>7900</v>
       </c>
       <c r="E33" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="F33" s="3">
-        <v>8200</v>
+        <v>5700</v>
       </c>
       <c r="G33" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,26 +1518,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4900</v>
+        <v>7900</v>
       </c>
       <c r="E35" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="F35" s="3">
-        <v>8200</v>
+        <v>5700</v>
       </c>
       <c r="G35" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,31 +1550,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,25 +1617,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19500</v>
+        <v>29400</v>
       </c>
       <c r="E41" s="3">
-        <v>24700</v>
+        <v>20200</v>
       </c>
       <c r="F41" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="G41" s="3">
-        <v>21200</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>26300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>22000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1560,22 +1647,25 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>47400</v>
+        <v>35200</v>
       </c>
       <c r="E42" s="3">
-        <v>75900</v>
+        <v>49000</v>
       </c>
       <c r="F42" s="3">
-        <v>149400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>78500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>154700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1589,25 +1679,28 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>124700</v>
+        <v>135500</v>
       </c>
       <c r="E43" s="3">
-        <v>101100</v>
+        <v>129100</v>
       </c>
       <c r="F43" s="3">
-        <v>90800</v>
+        <v>104600</v>
       </c>
       <c r="G43" s="3">
-        <v>89200</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>94000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>92300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,25 +1743,28 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10100</v>
+        <v>11200</v>
       </c>
       <c r="E45" s="3">
-        <v>7800</v>
+        <v>10400</v>
       </c>
       <c r="F45" s="3">
-        <v>5800</v>
+        <v>8000</v>
       </c>
       <c r="G45" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>6000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1676,25 +1775,28 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>201700</v>
+        <v>211300</v>
       </c>
       <c r="E46" s="3">
-        <v>209400</v>
+        <v>208700</v>
       </c>
       <c r="F46" s="3">
-        <v>271400</v>
+        <v>216700</v>
       </c>
       <c r="G46" s="3">
-        <v>116100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>280900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>120200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1705,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1717,13 +1822,13 @@
         <v>700</v>
       </c>
       <c r="F47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1734,25 +1839,28 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="E48" s="3">
-        <v>25000</v>
+        <v>26100</v>
       </c>
       <c r="F48" s="3">
-        <v>24600</v>
+        <v>25900</v>
       </c>
       <c r="G48" s="3">
-        <v>24500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>25500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>25300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1763,25 +1871,28 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>201700</v>
+        <v>217600</v>
       </c>
       <c r="E49" s="3">
-        <v>196400</v>
+        <v>208800</v>
       </c>
       <c r="F49" s="3">
-        <v>138200</v>
+        <v>203300</v>
       </c>
       <c r="G49" s="3">
-        <v>139500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>143100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>144400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,25 +1967,28 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13100</v>
+        <v>15600</v>
       </c>
       <c r="E52" s="3">
-        <v>10400</v>
+        <v>13600</v>
       </c>
       <c r="F52" s="3">
-        <v>7100</v>
+        <v>10800</v>
       </c>
       <c r="G52" s="3">
-        <v>5900</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>7400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>6100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,25 +2031,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>442500</v>
+        <v>470500</v>
       </c>
       <c r="E54" s="3">
-        <v>441900</v>
+        <v>457900</v>
       </c>
       <c r="F54" s="3">
-        <v>442000</v>
+        <v>457300</v>
       </c>
       <c r="G54" s="3">
-        <v>286500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>457400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>296600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,25 +2093,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25900</v>
+        <v>17500</v>
       </c>
       <c r="E57" s="3">
-        <v>24900</v>
+        <v>26800</v>
       </c>
       <c r="F57" s="3">
-        <v>15400</v>
+        <v>25800</v>
       </c>
       <c r="G57" s="3">
-        <v>23000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>16000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>23800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1992,25 +2123,28 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34300</v>
+        <v>48900</v>
       </c>
       <c r="E58" s="3">
-        <v>31500</v>
+        <v>35500</v>
       </c>
       <c r="F58" s="3">
-        <v>30800</v>
+        <v>32600</v>
       </c>
       <c r="G58" s="3">
-        <v>25900</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>31800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>26900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2021,25 +2155,28 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65700</v>
+        <v>78400</v>
       </c>
       <c r="E59" s="3">
-        <v>65900</v>
+        <v>68000</v>
       </c>
       <c r="F59" s="3">
-        <v>56500</v>
+        <v>68200</v>
       </c>
       <c r="G59" s="3">
-        <v>52300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>58500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>54200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2050,25 +2187,28 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>125900</v>
+        <v>144900</v>
       </c>
       <c r="E60" s="3">
-        <v>122400</v>
+        <v>130300</v>
       </c>
       <c r="F60" s="3">
-        <v>102700</v>
+        <v>126700</v>
       </c>
       <c r="G60" s="3">
-        <v>101300</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>106300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>104800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2079,25 +2219,28 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>91600</v>
+        <v>87900</v>
       </c>
       <c r="E61" s="3">
-        <v>108400</v>
+        <v>94800</v>
       </c>
       <c r="F61" s="3">
-        <v>116800</v>
+        <v>112200</v>
       </c>
       <c r="G61" s="3">
-        <v>120400</v>
+        <v>120900</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>124600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2108,25 +2251,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26100</v>
+        <v>23700</v>
       </c>
       <c r="E62" s="3">
-        <v>22400</v>
+        <v>27000</v>
       </c>
       <c r="F62" s="3">
-        <v>18700</v>
+        <v>23200</v>
       </c>
       <c r="G62" s="3">
-        <v>18500</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>19300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>19200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,25 +2379,28 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>243600</v>
+        <v>256500</v>
       </c>
       <c r="E66" s="3">
-        <v>253200</v>
+        <v>252100</v>
       </c>
       <c r="F66" s="3">
-        <v>238200</v>
+        <v>262000</v>
       </c>
       <c r="G66" s="3">
-        <v>240200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>246500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>248600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,25 +2553,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38300</v>
+        <v>48000</v>
       </c>
       <c r="E72" s="3">
-        <v>31900</v>
+        <v>39700</v>
       </c>
       <c r="F72" s="3">
-        <v>25500</v>
+        <v>33000</v>
       </c>
       <c r="G72" s="3">
-        <v>29000</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>26300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>30000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,25 +2681,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>198800</v>
+        <v>214000</v>
       </c>
       <c r="E76" s="3">
-        <v>188700</v>
+        <v>205800</v>
       </c>
       <c r="F76" s="3">
-        <v>203800</v>
+        <v>195300</v>
       </c>
       <c r="G76" s="3">
-        <v>46400</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>210900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>48000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2745,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,26 +2782,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4900</v>
+        <v>7900</v>
       </c>
       <c r="E81" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="F81" s="3">
-        <v>8200</v>
+        <v>5700</v>
       </c>
       <c r="G81" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,22 +2830,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E83" s="3">
-        <v>3600</v>
+        <v>4700</v>
       </c>
       <c r="F83" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>9400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,22 +3020,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-14400</v>
+        <v>17200</v>
       </c>
       <c r="E89" s="3">
-        <v>-13600</v>
+        <v>-14900</v>
       </c>
       <c r="F89" s="3">
-        <v>24800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-14100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>25600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,20 +3068,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,22 +3162,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>24800</v>
+        <v>-9500</v>
       </c>
       <c r="E94" s="3">
-        <v>17400</v>
+        <v>25600</v>
       </c>
       <c r="F94" s="3">
-        <v>-281900</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>18000</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-291800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2989,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-23600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-24400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,22 +3336,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14100</v>
+        <v>2400</v>
       </c>
       <c r="E100" s="3">
-        <v>-7500</v>
+        <v>-14600</v>
       </c>
       <c r="F100" s="3">
-        <v>257500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>-7700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>266500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3122,19 +3368,22 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1400</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+        <v>-1500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>3100</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3151,23 +3400,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5200</v>
+        <v>9200</v>
       </c>
       <c r="E102" s="3">
-        <v>-700</v>
+        <v>-5400</v>
       </c>
       <c r="F102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CINT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CINT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>CINT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,28 +714,31 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>108200</v>
+        <v>123200</v>
       </c>
       <c r="E8" s="3">
-        <v>101700</v>
+        <v>112600</v>
       </c>
       <c r="F8" s="3">
-        <v>95200</v>
+        <v>105700</v>
       </c>
       <c r="G8" s="3">
-        <v>88500</v>
+        <v>99100</v>
       </c>
       <c r="H8" s="3">
-        <v>72800</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>92000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>75700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -746,28 +749,31 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>70400</v>
+        <v>78800</v>
       </c>
       <c r="E9" s="3">
-        <v>66100</v>
+        <v>73200</v>
       </c>
       <c r="F9" s="3">
-        <v>63700</v>
+        <v>68800</v>
       </c>
       <c r="G9" s="3">
-        <v>57100</v>
+        <v>66300</v>
       </c>
       <c r="H9" s="3">
-        <v>47800</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>59400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>49700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -778,28 +784,31 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>37800</v>
+        <v>44400</v>
       </c>
       <c r="E10" s="3">
-        <v>35500</v>
+        <v>39400</v>
       </c>
       <c r="F10" s="3">
-        <v>31500</v>
+        <v>37000</v>
       </c>
       <c r="G10" s="3">
-        <v>31400</v>
+        <v>32800</v>
       </c>
       <c r="H10" s="3">
-        <v>25000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>32600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>26000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +836,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,29 +904,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
       </c>
       <c r="F14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -920,8 +939,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,28 +988,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>95700</v>
+        <v>105800</v>
       </c>
       <c r="E17" s="3">
-        <v>89700</v>
+        <v>99600</v>
       </c>
       <c r="F17" s="3">
-        <v>83400</v>
+        <v>93300</v>
       </c>
       <c r="G17" s="3">
-        <v>73200</v>
+        <v>86700</v>
       </c>
       <c r="H17" s="3">
-        <v>65200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>76100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>67900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -995,28 +1021,31 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12500</v>
+        <v>17400</v>
       </c>
       <c r="E18" s="3">
-        <v>11900</v>
+        <v>13000</v>
       </c>
       <c r="F18" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="G18" s="3">
-        <v>15300</v>
+        <v>12300</v>
       </c>
       <c r="H18" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>15900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1027,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,28 +1073,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6300</v>
+        <v>-2700</v>
       </c>
       <c r="E20" s="3">
-        <v>10300</v>
+        <v>2200</v>
       </c>
       <c r="F20" s="3">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="G20" s="3">
-        <v>5100</v>
+        <v>300</v>
       </c>
       <c r="H20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>5300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3500</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1073,25 +1106,28 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23400</v>
+        <v>20300</v>
       </c>
       <c r="E21" s="3">
-        <v>26900</v>
+        <v>19900</v>
       </c>
       <c r="F21" s="3">
-        <v>29100</v>
+        <v>17500</v>
       </c>
       <c r="G21" s="3">
-        <v>29700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>16500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>30900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1105,28 +1141,31 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7800</v>
+        <v>3800</v>
       </c>
       <c r="E22" s="3">
-        <v>13700</v>
+        <v>3600</v>
       </c>
       <c r="F22" s="3">
-        <v>16700</v>
+        <v>3800</v>
       </c>
       <c r="G22" s="3">
-        <v>6700</v>
+        <v>3700</v>
       </c>
       <c r="H22" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1137,28 +1176,31 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="E23" s="3">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="F23" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="G23" s="3">
-        <v>13700</v>
+        <v>9000</v>
       </c>
       <c r="H23" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>14200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1169,28 +1211,31 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3200</v>
+        <v>4900</v>
       </c>
       <c r="E24" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="F24" s="3">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="G24" s="3">
-        <v>5200</v>
+        <v>3100</v>
       </c>
       <c r="H24" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>5400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3800</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1201,8 +1246,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,29 +1281,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7900</v>
+        <v>6100</v>
       </c>
       <c r="E26" s="3">
-        <v>5000</v>
+        <v>8200</v>
       </c>
       <c r="F26" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="G26" s="3">
-        <v>8500</v>
+        <v>5900</v>
       </c>
       <c r="H26" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,29 +1316,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7900</v>
+        <v>6100</v>
       </c>
       <c r="E27" s="3">
-        <v>5000</v>
+        <v>8200</v>
       </c>
       <c r="F27" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="G27" s="3">
-        <v>8500</v>
+        <v>5900</v>
       </c>
       <c r="H27" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,28 +1491,31 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6300</v>
+        <v>2700</v>
       </c>
       <c r="E32" s="3">
-        <v>-10300</v>
+        <v>-2200</v>
       </c>
       <c r="F32" s="3">
-        <v>-13500</v>
+        <v>-300</v>
       </c>
       <c r="G32" s="3">
-        <v>-5100</v>
+        <v>-300</v>
       </c>
       <c r="H32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>-5300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-3500</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1457,29 +1526,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7900</v>
+        <v>6100</v>
       </c>
       <c r="E33" s="3">
-        <v>5000</v>
+        <v>8200</v>
       </c>
       <c r="F33" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="G33" s="3">
-        <v>8500</v>
+        <v>5900</v>
       </c>
       <c r="H33" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,29 +1596,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7900</v>
+        <v>6100</v>
       </c>
       <c r="E35" s="3">
-        <v>5000</v>
+        <v>8200</v>
       </c>
       <c r="F35" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="G35" s="3">
-        <v>8500</v>
+        <v>5900</v>
       </c>
       <c r="H35" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1553,34 +1631,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,28 +1703,29 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29400</v>
+        <v>25600</v>
       </c>
       <c r="E41" s="3">
-        <v>20200</v>
+        <v>15800</v>
       </c>
       <c r="F41" s="3">
-        <v>25500</v>
+        <v>12700</v>
       </c>
       <c r="G41" s="3">
-        <v>26300</v>
+        <v>13300</v>
       </c>
       <c r="H41" s="3">
-        <v>22000</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>27300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>22800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1650,25 +1736,28 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35200</v>
+        <v>31200</v>
       </c>
       <c r="E42" s="3">
-        <v>49000</v>
+        <v>51400</v>
       </c>
       <c r="F42" s="3">
-        <v>78500</v>
+        <v>59300</v>
       </c>
       <c r="G42" s="3">
-        <v>154700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>95000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>160900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1682,28 +1771,31 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>135500</v>
+        <v>146900</v>
       </c>
       <c r="E43" s="3">
-        <v>129100</v>
+        <v>140900</v>
       </c>
       <c r="F43" s="3">
-        <v>104600</v>
+        <v>134300</v>
       </c>
       <c r="G43" s="3">
-        <v>94000</v>
+        <v>108800</v>
       </c>
       <c r="H43" s="3">
-        <v>92300</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>97800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>96000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1714,8 +1806,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,28 +1841,31 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11200</v>
+        <v>13900</v>
       </c>
       <c r="E45" s="3">
-        <v>10400</v>
+        <v>11700</v>
       </c>
       <c r="F45" s="3">
-        <v>8000</v>
+        <v>10900</v>
       </c>
       <c r="G45" s="3">
-        <v>6000</v>
+        <v>8400</v>
       </c>
       <c r="H45" s="3">
-        <v>5900</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>6200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>6200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1778,28 +1876,31 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>211300</v>
+        <v>217600</v>
       </c>
       <c r="E46" s="3">
-        <v>208700</v>
+        <v>219800</v>
       </c>
       <c r="F46" s="3">
-        <v>216700</v>
+        <v>217100</v>
       </c>
       <c r="G46" s="3">
-        <v>280900</v>
+        <v>225400</v>
       </c>
       <c r="H46" s="3">
-        <v>120200</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>292200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>125000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1810,8 +1911,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1825,13 +1929,13 @@
         <v>700</v>
       </c>
       <c r="G47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1842,28 +1946,31 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25300</v>
+        <v>22400</v>
       </c>
       <c r="E48" s="3">
-        <v>26100</v>
+        <v>26300</v>
       </c>
       <c r="F48" s="3">
-        <v>25900</v>
+        <v>27200</v>
       </c>
       <c r="G48" s="3">
-        <v>25500</v>
+        <v>26900</v>
       </c>
       <c r="H48" s="3">
-        <v>25300</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>26500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>26400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1874,28 +1981,31 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>217600</v>
+        <v>352600</v>
       </c>
       <c r="E49" s="3">
-        <v>208800</v>
+        <v>226300</v>
       </c>
       <c r="F49" s="3">
-        <v>203300</v>
+        <v>217100</v>
       </c>
       <c r="G49" s="3">
-        <v>143100</v>
+        <v>211500</v>
       </c>
       <c r="H49" s="3">
-        <v>144400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>148800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>150200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1906,8 +2016,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,28 +2086,31 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="E52" s="3">
-        <v>13600</v>
+        <v>16200</v>
       </c>
       <c r="F52" s="3">
-        <v>10800</v>
+        <v>14100</v>
       </c>
       <c r="G52" s="3">
-        <v>7400</v>
+        <v>11200</v>
       </c>
       <c r="H52" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>7700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>6300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2121,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,28 +2156,31 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>470500</v>
+        <v>609600</v>
       </c>
       <c r="E54" s="3">
-        <v>457900</v>
+        <v>489400</v>
       </c>
       <c r="F54" s="3">
-        <v>457300</v>
+        <v>476300</v>
       </c>
       <c r="G54" s="3">
-        <v>457400</v>
+        <v>475700</v>
       </c>
       <c r="H54" s="3">
-        <v>296600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>475800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>308500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2066,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,28 +2223,29 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17500</v>
+        <v>21200</v>
       </c>
       <c r="E57" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>27800</v>
+      </c>
+      <c r="G57" s="3">
         <v>26800</v>
       </c>
-      <c r="F57" s="3">
-        <v>25800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>16000</v>
-      </c>
       <c r="H57" s="3">
-        <v>23800</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>16600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>24700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2126,28 +2256,31 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>48900</v>
+        <v>46600</v>
       </c>
       <c r="E58" s="3">
-        <v>35500</v>
+        <v>50900</v>
       </c>
       <c r="F58" s="3">
-        <v>32600</v>
+        <v>36900</v>
       </c>
       <c r="G58" s="3">
-        <v>31800</v>
+        <v>33900</v>
       </c>
       <c r="H58" s="3">
-        <v>26900</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>33100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>27900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2158,28 +2291,31 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78400</v>
+        <v>84400</v>
       </c>
       <c r="E59" s="3">
-        <v>68000</v>
+        <v>81600</v>
       </c>
       <c r="F59" s="3">
-        <v>68200</v>
+        <v>70700</v>
       </c>
       <c r="G59" s="3">
-        <v>58500</v>
+        <v>71000</v>
       </c>
       <c r="H59" s="3">
-        <v>54200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>60800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>56300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2190,28 +2326,31 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>144900</v>
+        <v>152100</v>
       </c>
       <c r="E60" s="3">
-        <v>130300</v>
+        <v>150700</v>
       </c>
       <c r="F60" s="3">
-        <v>126700</v>
+        <v>135500</v>
       </c>
       <c r="G60" s="3">
-        <v>106300</v>
+        <v>131700</v>
       </c>
       <c r="H60" s="3">
-        <v>104800</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>110600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>109000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2222,28 +2361,31 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>87900</v>
+        <v>149600</v>
       </c>
       <c r="E61" s="3">
-        <v>94800</v>
+        <v>91400</v>
       </c>
       <c r="F61" s="3">
-        <v>112200</v>
+        <v>98600</v>
       </c>
       <c r="G61" s="3">
-        <v>120900</v>
+        <v>116700</v>
       </c>
       <c r="H61" s="3">
-        <v>124600</v>
+        <v>125700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>129600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2254,28 +2396,31 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23700</v>
+        <v>38400</v>
       </c>
       <c r="E62" s="3">
-        <v>27000</v>
+        <v>24700</v>
       </c>
       <c r="F62" s="3">
-        <v>23200</v>
+        <v>28100</v>
       </c>
       <c r="G62" s="3">
-        <v>19300</v>
+        <v>24100</v>
       </c>
       <c r="H62" s="3">
-        <v>19200</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>20100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>20000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,28 +2536,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>256500</v>
+        <v>340100</v>
       </c>
       <c r="E66" s="3">
-        <v>252100</v>
+        <v>266800</v>
       </c>
       <c r="F66" s="3">
-        <v>262000</v>
+        <v>262300</v>
       </c>
       <c r="G66" s="3">
-        <v>246500</v>
+        <v>272500</v>
       </c>
       <c r="H66" s="3">
-        <v>248600</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>256400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>258500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,28 +2726,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>48000</v>
+        <v>91700</v>
       </c>
       <c r="E72" s="3">
-        <v>39700</v>
+        <v>49900</v>
       </c>
       <c r="F72" s="3">
-        <v>33000</v>
+        <v>41300</v>
       </c>
       <c r="G72" s="3">
-        <v>26300</v>
+        <v>34400</v>
       </c>
       <c r="H72" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>27400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>31300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,28 +2866,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>214000</v>
+        <v>269500</v>
       </c>
       <c r="E76" s="3">
-        <v>205800</v>
+        <v>222600</v>
       </c>
       <c r="F76" s="3">
-        <v>195300</v>
+        <v>214100</v>
       </c>
       <c r="G76" s="3">
-        <v>210900</v>
+        <v>203200</v>
       </c>
       <c r="H76" s="3">
-        <v>48000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>219400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>49900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2716,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,34 +2936,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,29 +2976,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7900</v>
+        <v>6100</v>
       </c>
       <c r="E81" s="3">
-        <v>5000</v>
+        <v>8200</v>
       </c>
       <c r="F81" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="G81" s="3">
-        <v>8500</v>
+        <v>5900</v>
       </c>
       <c r="H81" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,25 +3028,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="E83" s="3">
         <v>4700</v>
       </c>
       <c r="F83" s="3">
-        <v>3800</v>
+        <v>4900</v>
       </c>
       <c r="G83" s="3">
-        <v>9400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>9700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2863,8 +3061,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,25 +3236,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17200</v>
+        <v>19500</v>
       </c>
       <c r="E89" s="3">
-        <v>-14900</v>
+        <v>17900</v>
       </c>
       <c r="F89" s="3">
-        <v>-14100</v>
+        <v>-15500</v>
       </c>
       <c r="G89" s="3">
-        <v>25600</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-14600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>26700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,31 +3288,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-900</v>
+        <v>-4600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1400</v>
+        <v>-7200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3101,8 +3321,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,25 +3391,28 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9500</v>
+        <v>-52100</v>
       </c>
       <c r="E94" s="3">
-        <v>25600</v>
+        <v>-9900</v>
       </c>
       <c r="F94" s="3">
-        <v>18000</v>
+        <v>26600</v>
       </c>
       <c r="G94" s="3">
-        <v>-291800</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>18700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-303500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3197,8 +3426,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3226,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-24400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-25400</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3243,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,25 +3581,28 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2400</v>
+        <v>41000</v>
       </c>
       <c r="E100" s="3">
-        <v>-14600</v>
+        <v>2500</v>
       </c>
       <c r="F100" s="3">
-        <v>-7700</v>
+        <v>-15100</v>
       </c>
       <c r="G100" s="3">
-        <v>266500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>-8000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>277200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3371,22 +3616,25 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F101" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>-1600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3403,26 +3651,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9200</v>
+        <v>6800</v>
       </c>
       <c r="E102" s="3">
-        <v>-5400</v>
+        <v>9600</v>
       </c>
       <c r="F102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CINT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CINT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>CINT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,191 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>123200</v>
+        <v>115400</v>
       </c>
       <c r="E8" s="3">
-        <v>112600</v>
+        <v>123100</v>
       </c>
       <c r="F8" s="3">
-        <v>105700</v>
+        <v>123500</v>
       </c>
       <c r="G8" s="3">
-        <v>99100</v>
+        <v>112800</v>
       </c>
       <c r="H8" s="3">
-        <v>92000</v>
+        <v>106000</v>
       </c>
       <c r="I8" s="3">
+        <v>99300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>92200</v>
+      </c>
+      <c r="K8" s="3">
         <v>75700</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>78800</v>
+        <v>75500</v>
       </c>
       <c r="E9" s="3">
-        <v>73200</v>
+        <v>82300</v>
       </c>
       <c r="F9" s="3">
-        <v>68800</v>
+        <v>78900</v>
       </c>
       <c r="G9" s="3">
-        <v>66300</v>
+        <v>73400</v>
       </c>
       <c r="H9" s="3">
-        <v>59400</v>
+        <v>68900</v>
       </c>
       <c r="I9" s="3">
+        <v>66400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>59500</v>
+      </c>
+      <c r="K9" s="3">
         <v>49700</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>44400</v>
+        <v>39900</v>
       </c>
       <c r="E10" s="3">
+        <v>40800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44500</v>
+      </c>
+      <c r="G10" s="3">
         <v>39400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>37000</v>
       </c>
-      <c r="G10" s="3">
-        <v>32800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>32600</v>
-      </c>
       <c r="I10" s="3">
+        <v>32900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K10" s="3">
         <v>26000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +863,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +900,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +941,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,34 +956,40 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1023,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,78 +1041,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>105800</v>
+        <v>99800</v>
       </c>
       <c r="E17" s="3">
-        <v>99600</v>
+        <v>106200</v>
       </c>
       <c r="F17" s="3">
-        <v>93300</v>
+        <v>106000</v>
       </c>
       <c r="G17" s="3">
-        <v>86700</v>
+        <v>99800</v>
       </c>
       <c r="H17" s="3">
-        <v>76100</v>
+        <v>93500</v>
       </c>
       <c r="I17" s="3">
+        <v>86900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>76300</v>
+      </c>
+      <c r="K17" s="3">
         <v>67900</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17400</v>
+        <v>15700</v>
       </c>
       <c r="E18" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G18" s="3">
         <v>13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>12400</v>
       </c>
-      <c r="G18" s="3">
-        <v>12300</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J18" s="3">
         <v>15900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>7900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,66 +1140,74 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F21" s="3">
         <v>20300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>19900</v>
       </c>
-      <c r="F21" s="3">
-        <v>17500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>16500</v>
-      </c>
       <c r="H21" s="3">
-        <v>30900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>17600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>31000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1218,22 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3800</v>
+        <v>4400</v>
       </c>
       <c r="E22" s="3">
-        <v>3600</v>
+        <v>4700</v>
       </c>
       <c r="F22" s="3">
         <v>3800</v>
@@ -1162,95 +1242,113 @@
         <v>3700</v>
       </c>
       <c r="H22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J22" s="3">
         <v>7000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>8100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F23" s="3">
         <v>11000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>11500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>8900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>9000</v>
       </c>
-      <c r="H23" s="3">
-        <v>14200</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K23" s="3">
         <v>3400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F24" s="3">
         <v>4900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>3600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3800</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,78 +1382,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F26" s="3">
         <v>6100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>5900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>8800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F27" s="3">
         <v>6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>5900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>8800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1505,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1546,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1587,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,78 +1628,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F33" s="3">
         <v>6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>8200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>5200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>5900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>8800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,83 +1751,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F35" s="3">
         <v>6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>8200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>5200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>5900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>8800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1859,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,66 +1876,74 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25600</v>
+        <v>18400</v>
       </c>
       <c r="E41" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>25700</v>
+      </c>
+      <c r="G41" s="3">
         <v>15800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>13300</v>
       </c>
-      <c r="H41" s="3">
-        <v>27300</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K41" s="3">
         <v>22800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F42" s="3">
         <v>31200</v>
       </c>
-      <c r="E42" s="3">
-        <v>51400</v>
-      </c>
-      <c r="F42" s="3">
-        <v>59300</v>
-      </c>
       <c r="G42" s="3">
-        <v>95000</v>
+        <v>51500</v>
       </c>
       <c r="H42" s="3">
-        <v>160900</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>59500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>95200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>161200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1774,43 +1954,55 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>146900</v>
+        <v>144700</v>
       </c>
       <c r="E43" s="3">
-        <v>140900</v>
+        <v>140100</v>
       </c>
       <c r="F43" s="3">
-        <v>134300</v>
+        <v>147200</v>
       </c>
       <c r="G43" s="3">
-        <v>108800</v>
+        <v>141200</v>
       </c>
       <c r="H43" s="3">
-        <v>97800</v>
+        <v>134600</v>
       </c>
       <c r="I43" s="3">
+        <v>109000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K43" s="3">
         <v>96000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,78 +2036,96 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F45" s="3">
         <v>13900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>11700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>10900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>224300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>218100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>220300</v>
+      </c>
+      <c r="H46" s="3">
         <v>217600</v>
       </c>
-      <c r="E46" s="3">
-        <v>219800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>217100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>225400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>292200</v>
-      </c>
       <c r="I46" s="3">
+        <v>225900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>292900</v>
+      </c>
+      <c r="K46" s="3">
         <v>125000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1932,95 +2142,113 @@
         <v>700</v>
       </c>
       <c r="H47" s="3">
+        <v>700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>700</v>
+      </c>
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22400</v>
+        <v>18800</v>
       </c>
       <c r="E48" s="3">
-        <v>26300</v>
+        <v>20700</v>
       </c>
       <c r="F48" s="3">
+        <v>22500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>26400</v>
+      </c>
+      <c r="H48" s="3">
         <v>27200</v>
       </c>
-      <c r="G48" s="3">
-        <v>26900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>26500</v>
-      </c>
       <c r="I48" s="3">
+        <v>27000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K48" s="3">
         <v>26400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>352600</v>
+        <v>337900</v>
       </c>
       <c r="E49" s="3">
-        <v>226300</v>
+        <v>347000</v>
       </c>
       <c r="F49" s="3">
-        <v>217100</v>
+        <v>353400</v>
       </c>
       <c r="G49" s="3">
-        <v>211500</v>
+        <v>226800</v>
       </c>
       <c r="H49" s="3">
-        <v>148800</v>
+        <v>217600</v>
       </c>
       <c r="I49" s="3">
+        <v>211900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>149100</v>
+      </c>
+      <c r="K49" s="3">
         <v>150200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2282,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,43 +2323,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16100</v>
+        <v>14300</v>
       </c>
       <c r="E52" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F52" s="3">
         <v>16200</v>
       </c>
-      <c r="F52" s="3">
-        <v>14100</v>
-      </c>
       <c r="G52" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I52" s="3">
         <v>11200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>6300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,43 +2405,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>609600</v>
+        <v>568800</v>
       </c>
       <c r="E54" s="3">
-        <v>489400</v>
+        <v>609200</v>
       </c>
       <c r="F54" s="3">
-        <v>476300</v>
+        <v>610900</v>
       </c>
       <c r="G54" s="3">
-        <v>475700</v>
+        <v>490500</v>
       </c>
       <c r="H54" s="3">
-        <v>475800</v>
+        <v>477400</v>
       </c>
       <c r="I54" s="3">
+        <v>476700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>476800</v>
+      </c>
+      <c r="K54" s="3">
         <v>308500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2467,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,218 +2484,256 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F57" s="3">
         <v>21200</v>
       </c>
-      <c r="E57" s="3">
-        <v>18200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>27800</v>
-      </c>
       <c r="G57" s="3">
-        <v>26800</v>
+        <v>18300</v>
       </c>
       <c r="H57" s="3">
+        <v>27900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>26900</v>
+      </c>
+      <c r="J57" s="3">
         <v>16600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>24700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>46600</v>
+        <v>40400</v>
       </c>
       <c r="E58" s="3">
-        <v>50900</v>
+        <v>47100</v>
       </c>
       <c r="F58" s="3">
-        <v>36900</v>
+        <v>46700</v>
       </c>
       <c r="G58" s="3">
-        <v>33900</v>
+        <v>51000</v>
       </c>
       <c r="H58" s="3">
-        <v>33100</v>
+        <v>37000</v>
       </c>
       <c r="I58" s="3">
+        <v>34000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K58" s="3">
         <v>27900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>84400</v>
+        <v>65300</v>
       </c>
       <c r="E59" s="3">
-        <v>81600</v>
+        <v>81700</v>
       </c>
       <c r="F59" s="3">
-        <v>70700</v>
+        <v>84500</v>
       </c>
       <c r="G59" s="3">
-        <v>71000</v>
+        <v>81800</v>
       </c>
       <c r="H59" s="3">
-        <v>60800</v>
+        <v>70900</v>
       </c>
       <c r="I59" s="3">
+        <v>71100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>61000</v>
+      </c>
+      <c r="K59" s="3">
         <v>56300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>152100</v>
+        <v>117800</v>
       </c>
       <c r="E60" s="3">
-        <v>150700</v>
+        <v>147700</v>
       </c>
       <c r="F60" s="3">
-        <v>135500</v>
+        <v>152400</v>
       </c>
       <c r="G60" s="3">
-        <v>131700</v>
+        <v>151000</v>
       </c>
       <c r="H60" s="3">
-        <v>110600</v>
+        <v>135800</v>
       </c>
       <c r="I60" s="3">
+        <v>132000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K60" s="3">
         <v>109000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>149600</v>
+        <v>133800</v>
       </c>
       <c r="E61" s="3">
-        <v>91400</v>
+        <v>144300</v>
       </c>
       <c r="F61" s="3">
-        <v>98600</v>
+        <v>150000</v>
       </c>
       <c r="G61" s="3">
-        <v>116700</v>
+        <v>91600</v>
       </c>
       <c r="H61" s="3">
-        <v>125700</v>
+        <v>98900</v>
       </c>
       <c r="I61" s="3">
+        <v>117000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>126000</v>
+      </c>
+      <c r="K61" s="3">
         <v>129600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F62" s="3">
         <v>38400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>24700</v>
       </c>
-      <c r="F62" s="3">
-        <v>28100</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
+        <v>28200</v>
+      </c>
+      <c r="I62" s="3">
         <v>24100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>20100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>20000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2767,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2808,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,43 +2849,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>340100</v>
+        <v>286900</v>
       </c>
       <c r="E66" s="3">
-        <v>266800</v>
+        <v>329300</v>
       </c>
       <c r="F66" s="3">
-        <v>262300</v>
+        <v>340800</v>
       </c>
       <c r="G66" s="3">
-        <v>272500</v>
+        <v>267300</v>
       </c>
       <c r="H66" s="3">
-        <v>256400</v>
+        <v>262800</v>
       </c>
       <c r="I66" s="3">
+        <v>273100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>257000</v>
+      </c>
+      <c r="K66" s="3">
         <v>258500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2911,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2948,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2989,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +3030,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,43 +3071,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>91700</v>
+        <v>115100</v>
       </c>
       <c r="E72" s="3">
-        <v>49900</v>
+        <v>103600</v>
       </c>
       <c r="F72" s="3">
-        <v>41300</v>
+        <v>91900</v>
       </c>
       <c r="G72" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>41400</v>
+      </c>
+      <c r="I72" s="3">
         <v>34400</v>
       </c>
-      <c r="H72" s="3">
-        <v>27400</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K72" s="3">
         <v>31300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +3153,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3194,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,43 +3235,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>269500</v>
+        <v>281900</v>
       </c>
       <c r="E76" s="3">
-        <v>222600</v>
+        <v>280000</v>
       </c>
       <c r="F76" s="3">
-        <v>214100</v>
+        <v>270100</v>
       </c>
       <c r="G76" s="3">
-        <v>203200</v>
+        <v>223100</v>
       </c>
       <c r="H76" s="3">
-        <v>219400</v>
+        <v>214500</v>
       </c>
       <c r="I76" s="3">
+        <v>203600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>219900</v>
+      </c>
+      <c r="K76" s="3">
         <v>49900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,83 +3317,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F81" s="3">
         <v>6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>8200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>5200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>5900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>8800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,31 +3425,33 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F83" s="3">
         <v>5500</v>
       </c>
-      <c r="E83" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H83" s="3">
         <v>4900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3900</v>
       </c>
-      <c r="H83" s="3">
-        <v>9700</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>9800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3064,8 +3462,14 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3503,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3544,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3585,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3626,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,32 +3667,38 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F89" s="3">
         <v>19500</v>
       </c>
-      <c r="E89" s="3">
-        <v>17900</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H89" s="3">
         <v>-15500</v>
       </c>
-      <c r="G89" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="J89" s="3">
         <v>26700</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3708,14 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,23 +3729,25 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-7200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3315,17 +3757,23 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3807,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,31 +3848,37 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-52100</v>
+        <v>10400</v>
       </c>
       <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-9900</v>
       </c>
-      <c r="F94" s="3">
-        <v>26600</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>26700</v>
+      </c>
+      <c r="I94" s="3">
         <v>18700</v>
       </c>
-      <c r="H94" s="3">
-        <v>-303500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>-304100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3429,8 +3889,14 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3910,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3462,14 +3930,14 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-25400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -3479,8 +3947,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3988,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +4029,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,31 +4070,37 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>41000</v>
+        <v>-24500</v>
       </c>
       <c r="E100" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>41100</v>
+      </c>
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="I100" s="3">
         <v>-8000</v>
       </c>
-      <c r="H100" s="3">
-        <v>277200</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>277800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3619,29 +4111,35 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1600</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>-900</v>
+        <v>-200</v>
       </c>
       <c r="F101" s="3">
         <v>-1600</v>
       </c>
       <c r="G101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I101" s="3">
         <v>3200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3654,32 +4152,38 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F102" s="3">
         <v>6800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>9600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,6 +4191,12 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CINT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CINT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>CINT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,38 +726,41 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>115400</v>
+        <v>108800</v>
       </c>
       <c r="E8" s="3">
-        <v>123100</v>
+        <v>117600</v>
       </c>
       <c r="F8" s="3">
-        <v>123500</v>
+        <v>125400</v>
       </c>
       <c r="G8" s="3">
-        <v>112800</v>
+        <v>125800</v>
       </c>
       <c r="H8" s="3">
-        <v>106000</v>
+        <v>114900</v>
       </c>
       <c r="I8" s="3">
-        <v>99300</v>
+        <v>108000</v>
       </c>
       <c r="J8" s="3">
+        <v>101100</v>
+      </c>
+      <c r="K8" s="3">
         <v>92200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>75700</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,38 +770,41 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>75500</v>
+        <v>73400</v>
       </c>
       <c r="E9" s="3">
-        <v>82300</v>
+        <v>76900</v>
       </c>
       <c r="F9" s="3">
-        <v>78900</v>
+        <v>83900</v>
       </c>
       <c r="G9" s="3">
-        <v>73400</v>
+        <v>80400</v>
       </c>
       <c r="H9" s="3">
-        <v>68900</v>
+        <v>74800</v>
       </c>
       <c r="I9" s="3">
-        <v>66400</v>
+        <v>70200</v>
       </c>
       <c r="J9" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K9" s="3">
         <v>59500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,38 +814,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>39900</v>
+        <v>35400</v>
       </c>
       <c r="E10" s="3">
-        <v>40800</v>
+        <v>40600</v>
       </c>
       <c r="F10" s="3">
-        <v>44500</v>
+        <v>41600</v>
       </c>
       <c r="G10" s="3">
-        <v>39400</v>
+        <v>45400</v>
       </c>
       <c r="H10" s="3">
-        <v>37000</v>
+        <v>40200</v>
       </c>
       <c r="I10" s="3">
-        <v>32900</v>
+        <v>37700</v>
       </c>
       <c r="J10" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K10" s="3">
         <v>32700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +878,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,38 +964,41 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>-100</v>
       </c>
       <c r="I14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1069,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>99800</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>106200</v>
+        <v>101600</v>
       </c>
       <c r="F17" s="3">
-        <v>106000</v>
+        <v>108100</v>
       </c>
       <c r="G17" s="3">
-        <v>99800</v>
+        <v>108000</v>
       </c>
       <c r="H17" s="3">
-        <v>93500</v>
+        <v>101700</v>
       </c>
       <c r="I17" s="3">
-        <v>86900</v>
+        <v>95300</v>
       </c>
       <c r="J17" s="3">
+        <v>88500</v>
+      </c>
+      <c r="K17" s="3">
         <v>76300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,38 +1111,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>15700</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="F18" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="G18" s="3">
-        <v>13000</v>
+        <v>17800</v>
       </c>
       <c r="H18" s="3">
-        <v>12400</v>
+        <v>13300</v>
       </c>
       <c r="I18" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="J18" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K18" s="3">
         <v>15900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,38 +1175,39 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>600</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <v>700</v>
       </c>
       <c r="F20" s="3">
+        <v>700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,35 +1217,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>21000</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>22700</v>
+        <v>21400</v>
       </c>
       <c r="F21" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>20700</v>
+      </c>
+      <c r="H21" s="3">
         <v>20300</v>
       </c>
-      <c r="G21" s="3">
-        <v>19900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>17600</v>
-      </c>
       <c r="I21" s="3">
-        <v>16600</v>
+        <v>17900</v>
       </c>
       <c r="J21" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K21" s="3">
         <v>31000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,38 +1261,41 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>4400</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="F22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3700</v>
       </c>
-      <c r="H22" s="3">
-        <v>3800</v>
-      </c>
       <c r="I22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J22" s="3">
         <v>3700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,38 +1305,41 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11900</v>
+        <v>10100</v>
       </c>
       <c r="E23" s="3">
-        <v>12900</v>
+        <v>12200</v>
       </c>
       <c r="F23" s="3">
-        <v>11000</v>
+        <v>13200</v>
       </c>
       <c r="G23" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="H23" s="3">
-        <v>8900</v>
+        <v>11800</v>
       </c>
       <c r="I23" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="J23" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K23" s="3">
         <v>14300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,38 +1349,41 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
-        <v>4900</v>
-      </c>
       <c r="G24" s="3">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="H24" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="I24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3800</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1437,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>9700</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>10600</v>
+        <v>9800</v>
       </c>
       <c r="F26" s="3">
-        <v>6100</v>
+        <v>10800</v>
       </c>
       <c r="G26" s="3">
-        <v>8200</v>
+        <v>6200</v>
       </c>
       <c r="H26" s="3">
-        <v>5200</v>
+        <v>8400</v>
       </c>
       <c r="I26" s="3">
-        <v>5900</v>
+        <v>5300</v>
       </c>
       <c r="J26" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K26" s="3">
         <v>8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1481,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>9700</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>10600</v>
+        <v>9800</v>
       </c>
       <c r="F27" s="3">
-        <v>6100</v>
+        <v>10800</v>
       </c>
       <c r="G27" s="3">
-        <v>8200</v>
+        <v>6200</v>
       </c>
       <c r="H27" s="3">
-        <v>5200</v>
+        <v>8400</v>
       </c>
       <c r="I27" s="3">
-        <v>5900</v>
+        <v>5300</v>
       </c>
       <c r="J27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K27" s="3">
         <v>8800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,38 +1701,41 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-600</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
         <v>-700</v>
       </c>
       <c r="F32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,38 +1745,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>9700</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>10600</v>
+        <v>9800</v>
       </c>
       <c r="F33" s="3">
-        <v>6100</v>
+        <v>10800</v>
       </c>
       <c r="G33" s="3">
-        <v>8200</v>
+        <v>6200</v>
       </c>
       <c r="H33" s="3">
-        <v>5200</v>
+        <v>8400</v>
       </c>
       <c r="I33" s="3">
-        <v>5900</v>
+        <v>5300</v>
       </c>
       <c r="J33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K33" s="3">
         <v>8800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1833,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>9700</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>10600</v>
+        <v>9800</v>
       </c>
       <c r="F35" s="3">
-        <v>6100</v>
+        <v>10800</v>
       </c>
       <c r="G35" s="3">
-        <v>8200</v>
+        <v>6200</v>
       </c>
       <c r="H35" s="3">
-        <v>5200</v>
+        <v>8400</v>
       </c>
       <c r="I35" s="3">
-        <v>5900</v>
+        <v>5300</v>
       </c>
       <c r="J35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K35" s="3">
         <v>8800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,38 +1964,39 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18400</v>
+        <v>40000</v>
       </c>
       <c r="E41" s="3">
-        <v>31100</v>
+        <v>18800</v>
       </c>
       <c r="F41" s="3">
-        <v>25700</v>
+        <v>31700</v>
       </c>
       <c r="G41" s="3">
-        <v>15800</v>
+        <v>26200</v>
       </c>
       <c r="H41" s="3">
-        <v>12700</v>
+        <v>16100</v>
       </c>
       <c r="I41" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="J41" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K41" s="3">
         <v>27400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,35 +2006,38 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18900</v>
+        <v>8100</v>
       </c>
       <c r="E42" s="3">
-        <v>38600</v>
+        <v>19300</v>
       </c>
       <c r="F42" s="3">
-        <v>31200</v>
+        <v>39400</v>
       </c>
       <c r="G42" s="3">
-        <v>51500</v>
+        <v>31800</v>
       </c>
       <c r="H42" s="3">
-        <v>59500</v>
+        <v>52500</v>
       </c>
       <c r="I42" s="3">
-        <v>95200</v>
+        <v>60600</v>
       </c>
       <c r="J42" s="3">
+        <v>97000</v>
+      </c>
+      <c r="K42" s="3">
         <v>161200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,38 +2050,41 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>144700</v>
+        <v>141500</v>
       </c>
       <c r="E43" s="3">
-        <v>140100</v>
+        <v>147400</v>
       </c>
       <c r="F43" s="3">
-        <v>147200</v>
+        <v>142800</v>
       </c>
       <c r="G43" s="3">
-        <v>141200</v>
+        <v>150000</v>
       </c>
       <c r="H43" s="3">
-        <v>134600</v>
+        <v>143900</v>
       </c>
       <c r="I43" s="3">
-        <v>109000</v>
+        <v>137100</v>
       </c>
       <c r="J43" s="3">
+        <v>111100</v>
+      </c>
+      <c r="K43" s="3">
         <v>98000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>96000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2094,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,37 +2138,40 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15000</v>
+        <v>15600</v>
       </c>
       <c r="E45" s="3">
-        <v>14500</v>
+        <v>15300</v>
       </c>
       <c r="F45" s="3">
-        <v>13900</v>
+        <v>14800</v>
       </c>
       <c r="G45" s="3">
-        <v>11700</v>
+        <v>14200</v>
       </c>
       <c r="H45" s="3">
-        <v>10900</v>
+        <v>11900</v>
       </c>
       <c r="I45" s="3">
-        <v>8400</v>
+        <v>11100</v>
       </c>
       <c r="J45" s="3">
-        <v>6200</v>
+        <v>8500</v>
       </c>
       <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>6200</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2083,38 +2182,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>197000</v>
+        <v>205100</v>
       </c>
       <c r="E46" s="3">
-        <v>224300</v>
+        <v>200700</v>
       </c>
       <c r="F46" s="3">
-        <v>218100</v>
+        <v>228500</v>
       </c>
       <c r="G46" s="3">
-        <v>220300</v>
+        <v>222200</v>
       </c>
       <c r="H46" s="3">
-        <v>217600</v>
+        <v>224400</v>
       </c>
       <c r="I46" s="3">
-        <v>225900</v>
+        <v>221700</v>
       </c>
       <c r="J46" s="3">
+        <v>230100</v>
+      </c>
+      <c r="K46" s="3">
         <v>292900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>125000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,16 +2226,19 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E47" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F47" s="3">
         <v>700</v>
@@ -2148,13 +2253,13 @@
         <v>700</v>
       </c>
       <c r="J47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>600</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2165,38 +2270,41 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18800</v>
+        <v>17500</v>
       </c>
       <c r="E48" s="3">
-        <v>20700</v>
+        <v>19200</v>
       </c>
       <c r="F48" s="3">
-        <v>22500</v>
+        <v>21100</v>
       </c>
       <c r="G48" s="3">
+        <v>22900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>26900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>27800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K48" s="3">
+        <v>26600</v>
+      </c>
+      <c r="L48" s="3">
         <v>26400</v>
       </c>
-      <c r="H48" s="3">
-        <v>27200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>27000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>26600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>26400</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,38 +2314,41 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>337900</v>
+        <v>347700</v>
       </c>
       <c r="E49" s="3">
-        <v>347000</v>
+        <v>344200</v>
       </c>
       <c r="F49" s="3">
-        <v>353400</v>
+        <v>353500</v>
       </c>
       <c r="G49" s="3">
-        <v>226800</v>
+        <v>360000</v>
       </c>
       <c r="H49" s="3">
-        <v>217600</v>
+        <v>231100</v>
       </c>
       <c r="I49" s="3">
-        <v>211900</v>
+        <v>221700</v>
       </c>
       <c r="J49" s="3">
+        <v>215900</v>
+      </c>
+      <c r="K49" s="3">
         <v>149100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>150200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,38 +2446,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14300</v>
+        <v>15000</v>
       </c>
       <c r="E52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G52" s="3">
         <v>16500</v>
       </c>
-      <c r="F52" s="3">
-        <v>16200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>16300</v>
-      </c>
       <c r="H52" s="3">
-        <v>14200</v>
+        <v>16600</v>
       </c>
       <c r="I52" s="3">
-        <v>11200</v>
+        <v>14400</v>
       </c>
       <c r="J52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K52" s="3">
         <v>7700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,38 +2534,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>568800</v>
+        <v>586000</v>
       </c>
       <c r="E54" s="3">
-        <v>609200</v>
+        <v>579500</v>
       </c>
       <c r="F54" s="3">
-        <v>610900</v>
+        <v>620700</v>
       </c>
       <c r="G54" s="3">
-        <v>490500</v>
+        <v>622400</v>
       </c>
       <c r="H54" s="3">
-        <v>477400</v>
+        <v>499700</v>
       </c>
       <c r="I54" s="3">
-        <v>476700</v>
+        <v>486300</v>
       </c>
       <c r="J54" s="3">
+        <v>485700</v>
+      </c>
+      <c r="K54" s="3">
         <v>476800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>308500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,38 +2616,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="E57" s="3">
-        <v>18900</v>
+        <v>12300</v>
       </c>
       <c r="F57" s="3">
-        <v>21200</v>
+        <v>19200</v>
       </c>
       <c r="G57" s="3">
-        <v>18300</v>
+        <v>21600</v>
       </c>
       <c r="H57" s="3">
-        <v>27900</v>
+        <v>18600</v>
       </c>
       <c r="I57" s="3">
-        <v>26900</v>
+        <v>28400</v>
       </c>
       <c r="J57" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K57" s="3">
         <v>16600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,38 +2658,41 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40400</v>
+        <v>46200</v>
       </c>
       <c r="E58" s="3">
-        <v>47100</v>
+        <v>41200</v>
       </c>
       <c r="F58" s="3">
-        <v>46700</v>
+        <v>48000</v>
       </c>
       <c r="G58" s="3">
-        <v>51000</v>
+        <v>47600</v>
       </c>
       <c r="H58" s="3">
-        <v>37000</v>
+        <v>51900</v>
       </c>
       <c r="I58" s="3">
-        <v>34000</v>
+        <v>37700</v>
       </c>
       <c r="J58" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K58" s="3">
         <v>33200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,38 +2702,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65300</v>
+        <v>69800</v>
       </c>
       <c r="E59" s="3">
-        <v>81700</v>
+        <v>66600</v>
       </c>
       <c r="F59" s="3">
-        <v>84500</v>
+        <v>83200</v>
       </c>
       <c r="G59" s="3">
-        <v>81800</v>
+        <v>86100</v>
       </c>
       <c r="H59" s="3">
-        <v>70900</v>
+        <v>83300</v>
       </c>
       <c r="I59" s="3">
-        <v>71100</v>
+        <v>72200</v>
       </c>
       <c r="J59" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K59" s="3">
         <v>61000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,38 +2746,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>117800</v>
+        <v>128000</v>
       </c>
       <c r="E60" s="3">
-        <v>147700</v>
+        <v>120000</v>
       </c>
       <c r="F60" s="3">
-        <v>152400</v>
+        <v>150500</v>
       </c>
       <c r="G60" s="3">
-        <v>151000</v>
+        <v>155300</v>
       </c>
       <c r="H60" s="3">
-        <v>135800</v>
+        <v>153800</v>
       </c>
       <c r="I60" s="3">
-        <v>132000</v>
+        <v>138300</v>
       </c>
       <c r="J60" s="3">
+        <v>134500</v>
+      </c>
+      <c r="K60" s="3">
         <v>110800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>109000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,38 +2790,41 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>133800</v>
+        <v>127600</v>
       </c>
       <c r="E61" s="3">
-        <v>144300</v>
+        <v>136300</v>
       </c>
       <c r="F61" s="3">
-        <v>150000</v>
+        <v>147000</v>
       </c>
       <c r="G61" s="3">
-        <v>91600</v>
+        <v>152800</v>
       </c>
       <c r="H61" s="3">
-        <v>98900</v>
+        <v>93300</v>
       </c>
       <c r="I61" s="3">
-        <v>117000</v>
+        <v>100700</v>
       </c>
       <c r="J61" s="3">
+        <v>119100</v>
+      </c>
+      <c r="K61" s="3">
         <v>126000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>129600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2691,38 +2834,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35200</v>
+        <v>35900</v>
       </c>
       <c r="E62" s="3">
-        <v>37300</v>
+        <v>35900</v>
       </c>
       <c r="F62" s="3">
-        <v>38400</v>
+        <v>38000</v>
       </c>
       <c r="G62" s="3">
-        <v>24700</v>
+        <v>39200</v>
       </c>
       <c r="H62" s="3">
-        <v>28200</v>
+        <v>25200</v>
       </c>
       <c r="I62" s="3">
-        <v>24100</v>
+        <v>28700</v>
       </c>
       <c r="J62" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K62" s="3">
         <v>20100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,38 +3010,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>286900</v>
+        <v>291500</v>
       </c>
       <c r="E66" s="3">
-        <v>329300</v>
+        <v>292200</v>
       </c>
       <c r="F66" s="3">
-        <v>340800</v>
+        <v>335500</v>
       </c>
       <c r="G66" s="3">
-        <v>267300</v>
+        <v>347200</v>
       </c>
       <c r="H66" s="3">
-        <v>262800</v>
+        <v>272400</v>
       </c>
       <c r="I66" s="3">
-        <v>273100</v>
+        <v>267800</v>
       </c>
       <c r="J66" s="3">
+        <v>278200</v>
+      </c>
+      <c r="K66" s="3">
         <v>257000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>258500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,38 +3248,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>115100</v>
+        <v>126200</v>
       </c>
       <c r="E72" s="3">
-        <v>103600</v>
+        <v>117300</v>
       </c>
       <c r="F72" s="3">
-        <v>91900</v>
+        <v>105600</v>
       </c>
       <c r="G72" s="3">
-        <v>50000</v>
+        <v>93600</v>
       </c>
       <c r="H72" s="3">
-        <v>41400</v>
+        <v>51000</v>
       </c>
       <c r="I72" s="3">
-        <v>34400</v>
+        <v>42100</v>
       </c>
       <c r="J72" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K72" s="3">
         <v>27500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,38 +3424,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>281900</v>
+        <v>294500</v>
       </c>
       <c r="E76" s="3">
-        <v>280000</v>
+        <v>287200</v>
       </c>
       <c r="F76" s="3">
-        <v>270100</v>
+        <v>285200</v>
       </c>
       <c r="G76" s="3">
-        <v>223100</v>
+        <v>275200</v>
       </c>
       <c r="H76" s="3">
-        <v>214500</v>
+        <v>227300</v>
       </c>
       <c r="I76" s="3">
-        <v>203600</v>
+        <v>218500</v>
       </c>
       <c r="J76" s="3">
+        <v>207400</v>
+      </c>
+      <c r="K76" s="3">
         <v>219900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3561,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>9700</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>10600</v>
+        <v>9800</v>
       </c>
       <c r="F81" s="3">
-        <v>6100</v>
+        <v>10800</v>
       </c>
       <c r="G81" s="3">
-        <v>8200</v>
+        <v>6200</v>
       </c>
       <c r="H81" s="3">
-        <v>5200</v>
+        <v>8400</v>
       </c>
       <c r="I81" s="3">
-        <v>5900</v>
+        <v>5300</v>
       </c>
       <c r="J81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K81" s="3">
         <v>8800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3436,26 +3635,26 @@
         <v>4700</v>
       </c>
       <c r="E83" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="F83" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="G83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H83" s="3">
         <v>4800</v>
       </c>
-      <c r="H83" s="3">
-        <v>4900</v>
-      </c>
       <c r="I83" s="3">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="J83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K83" s="3">
         <v>9800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3887,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6200</v>
+        <v>23800</v>
       </c>
       <c r="E89" s="3">
-        <v>18800</v>
+        <v>-6400</v>
       </c>
       <c r="F89" s="3">
-        <v>19500</v>
+        <v>19100</v>
       </c>
       <c r="G89" s="3">
-        <v>18000</v>
+        <v>19900</v>
       </c>
       <c r="H89" s="3">
-        <v>-15500</v>
+        <v>18300</v>
       </c>
       <c r="I89" s="3">
-        <v>-14700</v>
+        <v>-15800</v>
       </c>
       <c r="J89" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K89" s="3">
         <v>26700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,26 +3951,27 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -3763,8 +3984,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,35 +4081,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>10400</v>
+        <v>-1900</v>
       </c>
       <c r="E94" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
-        <v>-52200</v>
-      </c>
       <c r="G94" s="3">
-        <v>-9900</v>
+        <v>-53200</v>
       </c>
       <c r="H94" s="3">
-        <v>26700</v>
+        <v>-10100</v>
       </c>
       <c r="I94" s="3">
-        <v>18700</v>
+        <v>27200</v>
       </c>
       <c r="J94" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-304100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3936,11 +4170,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-25400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,35 +4319,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-24500</v>
+        <v>-13400</v>
       </c>
       <c r="E100" s="3">
-        <v>-4700</v>
+        <v>-24900</v>
       </c>
       <c r="F100" s="3">
-        <v>41100</v>
+        <v>-4800</v>
       </c>
       <c r="G100" s="3">
+        <v>41800</v>
+      </c>
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
-        <v>-15200</v>
-      </c>
       <c r="I100" s="3">
-        <v>-8000</v>
+        <v>-15500</v>
       </c>
       <c r="J100" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K100" s="3">
         <v>277800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,31 +4363,34 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>3300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4158,35 +4407,38 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-20700</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>13300</v>
+        <v>-21000</v>
       </c>
       <c r="F102" s="3">
-        <v>6800</v>
+        <v>13500</v>
       </c>
       <c r="G102" s="3">
-        <v>9600</v>
+        <v>7000</v>
       </c>
       <c r="H102" s="3">
-        <v>-5600</v>
+        <v>9800</v>
       </c>
       <c r="I102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
